--- a/testdata/testscriptdata.xlsx
+++ b/testdata/testscriptdata.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{70CBAEE7-214E-4A39-9D6D-BE7F3B846F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e63a3171990fe9a/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{9095B8D0-1285-4B1C-8F82-C6D9C5B99D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E015E699-A2B6-4860-91FA-8B454CBE47BD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7E521084-1830-49AA-827D-F34E2491269B}"/>
+    <workbookView xWindow="3240" yWindow="0" windowWidth="13044" windowHeight="12240" activeTab="2" xr2:uid="{7E521084-1830-49AA-827D-F34E2491269B}"/>
   </bookViews>
   <sheets>
     <sheet name="grd" sheetId="1" r:id="rId1"/>
@@ -13,18 +18,26 @@
     <sheet name="tt" sheetId="3" r:id="rId3"/>
     <sheet name="ex" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J19"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>TC_ID</t>
   </si>
@@ -56,6 +69,12 @@
     <t>Grade K</t>
   </si>
   <si>
+    <t>Grade G</t>
+  </si>
+  <si>
+    <t>Grade B</t>
+  </si>
+  <si>
     <t>Subject 4</t>
   </si>
   <si>
@@ -260,13 +279,16 @@
     <t>Grade 1</t>
   </si>
   <si>
-    <t>Teacher 5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Grade A</t>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade </t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
   </si>
 </sst>
 </file>
@@ -336,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,6 +382,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,33 +702,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
@@ -731,33 +758,33 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -787,33 +814,33 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3">
@@ -842,7 +869,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -877,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -891,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,13 +932,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -925,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,13 +966,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -957,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A83C85F-CAEA-4904-82B5-E29788D527BE}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1005,24 +1032,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1039,25 +1068,25 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1065,21 +1094,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="3"/>
@@ -1099,25 +1128,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1125,23 +1154,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1159,45 +1186,45 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="3"/>
@@ -1217,45 +1244,45 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="3"/>
@@ -1275,45 +1302,45 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="3"/>
@@ -1327,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC148DB-9EA7-414A-8A20-2940F408D437}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1335,34 +1362,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
